--- a/files/eq_files/80000571.xlsx
+++ b/files/eq_files/80000571.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="27">
   <si>
     <t>дата</t>
   </si>
@@ -87,6 +87,9 @@
   </si>
   <si>
     <t>2222</t>
+  </si>
+  <si>
+    <t>02/01/2019</t>
   </si>
   <si>
     <t>crimper wire</t>
@@ -49739,6 +49742,117 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
+        <v>24</v>
+      </c>
+      <c r="B32" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
+        <v>24</v>
+      </c>
+      <c r="B33" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
+        <v>24</v>
+      </c>
+      <c r="B34" t="s">
+        <v>16</v>
+      </c>
+      <c r="C34" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
+        <v>24</v>
+      </c>
+      <c r="B35" t="s">
+        <v>16</v>
+      </c>
+      <c r="C35" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="s">
+        <v>24</v>
+      </c>
+      <c r="B36" t="s">
+        <v>16</v>
+      </c>
+      <c r="C36" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
+        <v>24</v>
+      </c>
+      <c r="B37" t="s">
+        <v>16</v>
+      </c>
+      <c r="C37" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" t="s">
+        <v>24</v>
+      </c>
+      <c r="B38" t="s">
+        <v>16</v>
+      </c>
+      <c r="C38" t="s">
+        <v>11</v>
+      </c>
+      <c r="D38" t="s"/>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" t="s">
         <v>6</v>
       </c>
     </row>
@@ -49752,7 +49866,7 @@
         <v>400001370</v>
       </c>
       <c r="B1998" s="16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C1998" s="16" t="n">
         <v>119000</v>
@@ -49763,7 +49877,7 @@
         <v>400001964</v>
       </c>
       <c r="B1999" s="16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C1999" s="16" t="n">
         <v>120000</v>
